--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>120.647535114088</v>
+        <v>132.0687866666667</v>
       </c>
       <c r="H2">
-        <v>120.647535114088</v>
+        <v>396.20636</v>
       </c>
       <c r="I2">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="J2">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>4438.232493045915</v>
+        <v>5960.407152647983</v>
       </c>
       <c r="R2">
-        <v>4438.232493045915</v>
+        <v>53643.66437383185</v>
       </c>
       <c r="S2">
-        <v>0.03944770323984665</v>
+        <v>0.04499096750372231</v>
       </c>
       <c r="T2">
-        <v>0.03944770323984665</v>
+        <v>0.0449909675037223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>120.647535114088</v>
+        <v>132.0687866666667</v>
       </c>
       <c r="H3">
-        <v>120.647535114088</v>
+        <v>396.20636</v>
       </c>
       <c r="I3">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="J3">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>689.3485451191073</v>
+        <v>755.0974327171244</v>
       </c>
       <c r="R3">
-        <v>689.3485451191073</v>
+        <v>6795.87689445412</v>
       </c>
       <c r="S3">
-        <v>0.006127037481539445</v>
+        <v>0.005699705269702517</v>
       </c>
       <c r="T3">
-        <v>0.006127037481539445</v>
+        <v>0.005699705269702517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>120.647535114088</v>
+        <v>132.0687866666667</v>
       </c>
       <c r="H4">
-        <v>120.647535114088</v>
+        <v>396.20636</v>
       </c>
       <c r="I4">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="J4">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>1442.545414186622</v>
+        <v>1871.604181752604</v>
       </c>
       <c r="R4">
-        <v>1442.545414186622</v>
+        <v>16844.43763577344</v>
       </c>
       <c r="S4">
-        <v>0.01282156883353854</v>
+        <v>0.01412743807000718</v>
       </c>
       <c r="T4">
-        <v>0.01282156883353854</v>
+        <v>0.01412743807000718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>120.647535114088</v>
+        <v>132.0687866666667</v>
       </c>
       <c r="H5">
-        <v>120.647535114088</v>
+        <v>396.20636</v>
       </c>
       <c r="I5">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="J5">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>1884.337187927833</v>
+        <v>2105.8407654636</v>
       </c>
       <c r="R5">
-        <v>1884.337187927833</v>
+        <v>18952.5668891724</v>
       </c>
       <c r="S5">
-        <v>0.01674828308558717</v>
+        <v>0.0158955271042005</v>
       </c>
       <c r="T5">
-        <v>0.01674828308558717</v>
+        <v>0.0158955271042005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.647535114088</v>
+        <v>132.0687866666667</v>
       </c>
       <c r="H6">
-        <v>120.647535114088</v>
+        <v>396.20636</v>
       </c>
       <c r="I6">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="J6">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>3208.120611882331</v>
+        <v>3768.070576732783</v>
       </c>
       <c r="R6">
-        <v>3208.120611882331</v>
+        <v>33912.63519059504</v>
       </c>
       <c r="S6">
-        <v>0.02851427681029782</v>
+        <v>0.02844254369337863</v>
       </c>
       <c r="T6">
-        <v>0.02851427681029782</v>
+        <v>0.02844254369337863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.647535114088</v>
+        <v>132.0687866666667</v>
       </c>
       <c r="H7">
-        <v>120.647535114088</v>
+        <v>396.20636</v>
       </c>
       <c r="I7">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="J7">
-        <v>0.1336296532115812</v>
+        <v>0.1419125628977714</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>3371.991152953785</v>
+        <v>4339.568139349422</v>
       </c>
       <c r="R7">
-        <v>3371.991152953785</v>
+        <v>39056.1132541448</v>
       </c>
       <c r="S7">
-        <v>0.02997078376077157</v>
+        <v>0.03275638125676032</v>
       </c>
       <c r="T7">
-        <v>0.02997078376077157</v>
+        <v>0.03275638125676031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>251.191073868411</v>
+        <v>251.4012703333334</v>
       </c>
       <c r="H8">
-        <v>251.191073868411</v>
+        <v>754.2038110000001</v>
       </c>
       <c r="I8">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="J8">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>9240.506944063529</v>
+        <v>11346.01117871699</v>
       </c>
       <c r="R8">
-        <v>9240.506944063529</v>
+        <v>102114.1006084529</v>
       </c>
       <c r="S8">
-        <v>0.08213106823184831</v>
+        <v>0.0856431460410795</v>
       </c>
       <c r="T8">
-        <v>0.08213106823184831</v>
+        <v>0.08564314604107949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>251.191073868411</v>
+        <v>251.4012703333334</v>
       </c>
       <c r="H9">
-        <v>251.191073868411</v>
+        <v>754.2038110000001</v>
       </c>
       <c r="I9">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="J9">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>1435.24027369769</v>
+        <v>1437.375617674515</v>
       </c>
       <c r="R9">
-        <v>1435.24027369769</v>
+        <v>12936.38055907064</v>
       </c>
       <c r="S9">
-        <v>0.01275663960448523</v>
+        <v>0.01084974869153141</v>
       </c>
       <c r="T9">
-        <v>0.01275663960448523</v>
+        <v>0.01084974869153141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>251.191073868411</v>
+        <v>251.4012703333334</v>
       </c>
       <c r="H10">
-        <v>251.191073868411</v>
+        <v>754.2038110000001</v>
       </c>
       <c r="I10">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="J10">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>3003.414295624323</v>
+        <v>3562.716677645838</v>
       </c>
       <c r="R10">
-        <v>3003.414295624323</v>
+        <v>32064.45009881254</v>
       </c>
       <c r="S10">
-        <v>0.02669481511519267</v>
+        <v>0.02689246995445984</v>
       </c>
       <c r="T10">
-        <v>0.02669481511519267</v>
+        <v>0.02689246995445984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>251.191073868411</v>
+        <v>251.4012703333334</v>
       </c>
       <c r="H11">
-        <v>251.191073868411</v>
+        <v>754.2038110000001</v>
       </c>
       <c r="I11">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="J11">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>3923.235408980217</v>
+        <v>4008.600797503111</v>
       </c>
       <c r="R11">
-        <v>3923.235408980217</v>
+        <v>36077.407177528</v>
       </c>
       <c r="S11">
-        <v>0.03487032876173143</v>
+        <v>0.0302581390158447</v>
       </c>
       <c r="T11">
-        <v>0.03487032876173143</v>
+        <v>0.0302581390158447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.191073868411</v>
+        <v>251.4012703333334</v>
       </c>
       <c r="H12">
-        <v>251.191073868411</v>
+        <v>754.2038110000001</v>
       </c>
       <c r="I12">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="J12">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>6679.384380593178</v>
+        <v>7172.760147234469</v>
       </c>
       <c r="R12">
-        <v>6679.384380593178</v>
+        <v>64554.84132511022</v>
       </c>
       <c r="S12">
-        <v>0.05936741107712419</v>
+        <v>0.05414217694052206</v>
       </c>
       <c r="T12">
-        <v>0.05936741107712419</v>
+        <v>0.05414217694052206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.191073868411</v>
+        <v>251.4012703333334</v>
       </c>
       <c r="H13">
-        <v>251.191073868411</v>
+        <v>754.2038110000001</v>
       </c>
       <c r="I13">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="J13">
-        <v>0.2782201564179397</v>
+        <v>0.2701395196338505</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N13">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q13">
-        <v>7020.566793878384</v>
+        <v>8260.641825112332</v>
       </c>
       <c r="R13">
-        <v>7020.566793878384</v>
+        <v>74345.77642601098</v>
       </c>
       <c r="S13">
-        <v>0.06239989362755787</v>
+        <v>0.06235383899041298</v>
       </c>
       <c r="T13">
-        <v>0.06239989362755787</v>
+        <v>0.06235383899041297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>149.5521157836</v>
+        <v>161.5349043333333</v>
       </c>
       <c r="H14">
-        <v>149.5521157836</v>
+        <v>484.6047130000001</v>
       </c>
       <c r="I14">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="J14">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N14">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O14">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P14">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q14">
-        <v>5501.538502604955</v>
+        <v>7290.244905639886</v>
       </c>
       <c r="R14">
-        <v>5501.538502604955</v>
+        <v>65612.20415075899</v>
       </c>
       <c r="S14">
-        <v>0.04889853304291632</v>
+        <v>0.05502898765868795</v>
       </c>
       <c r="T14">
-        <v>0.04889853304291632</v>
+        <v>0.05502898765868793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>149.5521157836</v>
+        <v>161.5349043333333</v>
       </c>
       <c r="H15">
-        <v>149.5521157836</v>
+        <v>484.6047130000001</v>
       </c>
       <c r="I15">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="J15">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N15">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q15">
-        <v>854.5017793974864</v>
+        <v>923.5686541450746</v>
       </c>
       <c r="R15">
-        <v>854.5017793974864</v>
+        <v>8312.117887305671</v>
       </c>
       <c r="S15">
-        <v>0.007594945209474456</v>
+        <v>0.006971377330764644</v>
       </c>
       <c r="T15">
-        <v>0.007594945209474456</v>
+        <v>0.006971377330764644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>149.5521157836</v>
+        <v>161.5349043333333</v>
       </c>
       <c r="H16">
-        <v>149.5521157836</v>
+        <v>484.6047130000001</v>
       </c>
       <c r="I16">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="J16">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N16">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q16">
-        <v>1788.148581747092</v>
+        <v>2289.181343146083</v>
       </c>
       <c r="R16">
-        <v>1788.148581747092</v>
+        <v>20602.63208831475</v>
       </c>
       <c r="S16">
-        <v>0.01589334373808393</v>
+        <v>0.01727943759242305</v>
       </c>
       <c r="T16">
-        <v>0.01589334373808393</v>
+        <v>0.01727943759242305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>149.5521157836</v>
+        <v>161.5349043333333</v>
       </c>
       <c r="H17">
-        <v>149.5521157836</v>
+        <v>484.6047130000001</v>
       </c>
       <c r="I17">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="J17">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N17">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q17">
-        <v>2335.784258151992</v>
+        <v>2575.67889564213</v>
       </c>
       <c r="R17">
-        <v>2335.784258151992</v>
+        <v>23181.11006077917</v>
       </c>
       <c r="S17">
-        <v>0.02076081512004105</v>
+        <v>0.01944200832696074</v>
       </c>
       <c r="T17">
-        <v>0.02076081512004105</v>
+        <v>0.01944200832696073</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>149.5521157836</v>
+        <v>161.5349043333333</v>
       </c>
       <c r="H18">
-        <v>149.5521157836</v>
+        <v>484.6047130000001</v>
       </c>
       <c r="I18">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="J18">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N18">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q18">
-        <v>3976.718005405449</v>
+        <v>4608.771955102727</v>
       </c>
       <c r="R18">
-        <v>3976.718005405449</v>
+        <v>41478.94759592454</v>
       </c>
       <c r="S18">
-        <v>0.03534569042779664</v>
+        <v>0.03478841360224433</v>
       </c>
       <c r="T18">
-        <v>0.03534569042779664</v>
+        <v>0.03478841360224432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>149.5521157836</v>
+        <v>161.5349043333333</v>
       </c>
       <c r="H19">
-        <v>149.5521157836</v>
+        <v>484.6047130000001</v>
       </c>
       <c r="I19">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="J19">
-        <v>0.1656444729709783</v>
+        <v>0.1735749441633622</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N19">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q19">
-        <v>4179.848439099471</v>
+        <v>5307.777423647038</v>
       </c>
       <c r="R19">
-        <v>4179.848439099471</v>
+        <v>47769.99681282334</v>
       </c>
       <c r="S19">
-        <v>0.03715114543266589</v>
+        <v>0.04006471965228148</v>
       </c>
       <c r="T19">
-        <v>0.03715114543266589</v>
+        <v>0.04006471965228147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>161.996474798967</v>
+        <v>162.458735</v>
       </c>
       <c r="H20">
-        <v>161.996474798967</v>
+        <v>487.376205</v>
       </c>
       <c r="I20">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="J20">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N20">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O20">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P20">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q20">
-        <v>5959.326210285039</v>
+        <v>7331.938382595447</v>
       </c>
       <c r="R20">
-        <v>5959.326210285039</v>
+        <v>65987.44544335903</v>
       </c>
       <c r="S20">
-        <v>0.05296742165289991</v>
+        <v>0.05534370271401625</v>
       </c>
       <c r="T20">
-        <v>0.05296742165289991</v>
+        <v>0.05534370271401624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>161.996474798967</v>
+        <v>162.458735</v>
       </c>
       <c r="H21">
-        <v>161.996474798967</v>
+        <v>487.376205</v>
       </c>
       <c r="I21">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="J21">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N21">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q21">
-        <v>925.6056007401355</v>
+        <v>928.8506150252483</v>
       </c>
       <c r="R21">
-        <v>925.6056007401355</v>
+        <v>8359.655535227235</v>
       </c>
       <c r="S21">
-        <v>0.008226927073412127</v>
+        <v>0.007011247179288373</v>
       </c>
       <c r="T21">
-        <v>0.008226927073412127</v>
+        <v>0.007011247179288373</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>161.996474798967</v>
+        <v>162.458735</v>
       </c>
       <c r="H22">
-        <v>161.996474798967</v>
+        <v>487.376205</v>
       </c>
       <c r="I22">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="J22">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N22">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q22">
-        <v>1936.941949246346</v>
+        <v>2302.273349081813</v>
       </c>
       <c r="R22">
-        <v>1936.941949246346</v>
+        <v>20720.46014173632</v>
       </c>
       <c r="S22">
-        <v>0.01721584241618716</v>
+        <v>0.01737826003836138</v>
       </c>
       <c r="T22">
-        <v>0.01721584241618716</v>
+        <v>0.01737826003836138</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>161.996474798967</v>
+        <v>162.458735</v>
       </c>
       <c r="H23">
-        <v>161.996474798967</v>
+        <v>487.376205</v>
       </c>
       <c r="I23">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="J23">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N23">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q23">
-        <v>2530.146857026529</v>
+        <v>2590.409403337051</v>
       </c>
       <c r="R23">
-        <v>2530.146857026529</v>
+        <v>23313.68463003345</v>
       </c>
       <c r="S23">
-        <v>0.02248834024030941</v>
+        <v>0.01955319868292846</v>
       </c>
       <c r="T23">
-        <v>0.02248834024030941</v>
+        <v>0.01955319868292845</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>161.996474798967</v>
+        <v>162.458735</v>
       </c>
       <c r="H24">
-        <v>161.996474798967</v>
+        <v>487.376205</v>
       </c>
       <c r="I24">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="J24">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N24">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q24">
-        <v>4307.624099932041</v>
+        <v>4635.129879944848</v>
       </c>
       <c r="R24">
-        <v>4307.624099932041</v>
+        <v>41716.16891950362</v>
       </c>
       <c r="S24">
-        <v>0.03828683545289269</v>
+        <v>0.03498737124216169</v>
       </c>
       <c r="T24">
-        <v>0.03828683545289269</v>
+        <v>0.03498737124216168</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>161.996474798967</v>
+        <v>162.458735</v>
       </c>
       <c r="H25">
-        <v>161.996474798967</v>
+        <v>487.376205</v>
       </c>
       <c r="I25">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="J25">
-        <v>0.1794278907431805</v>
+        <v>0.1745676327531432</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N25">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q25">
-        <v>4527.657190138748</v>
+        <v>5338.133015065767</v>
       </c>
       <c r="R25">
-        <v>4527.657190138748</v>
+        <v>48043.19713559189</v>
       </c>
       <c r="S25">
-        <v>0.04024252390747919</v>
+        <v>0.04029385289638706</v>
       </c>
       <c r="T25">
-        <v>0.04024252390747919</v>
+        <v>0.04029385289638705</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>103.916196531931</v>
+        <v>105.1932193333333</v>
       </c>
       <c r="H26">
-        <v>103.916196531931</v>
+        <v>315.579658</v>
       </c>
       <c r="I26">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="J26">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N26">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O26">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P26">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q26">
-        <v>3822.740676513885</v>
+        <v>4747.483737447839</v>
       </c>
       <c r="R26">
-        <v>3822.740676513885</v>
+        <v>42727.35363703055</v>
       </c>
       <c r="S26">
-        <v>0.03397711589158299</v>
+        <v>0.03583545235849772</v>
       </c>
       <c r="T26">
-        <v>0.03397711589158299</v>
+        <v>0.03583545235849771</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>103.916196531931</v>
+        <v>105.1932193333333</v>
       </c>
       <c r="H27">
-        <v>103.916196531931</v>
+        <v>315.579658</v>
       </c>
       <c r="I27">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="J27">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N27">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q27">
-        <v>593.750040776698</v>
+        <v>601.4375679722762</v>
       </c>
       <c r="R27">
-        <v>593.750040776698</v>
+        <v>5412.938111750485</v>
       </c>
       <c r="S27">
-        <v>0.005277343051294657</v>
+        <v>0.004539833837380898</v>
       </c>
       <c r="T27">
-        <v>0.005277343051294657</v>
+        <v>0.004539833837380898</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>103.916196531931</v>
+        <v>105.1932193333333</v>
       </c>
       <c r="H28">
-        <v>103.916196531931</v>
+        <v>315.579658</v>
       </c>
       <c r="I28">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="J28">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N28">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q28">
-        <v>1242.493952529567</v>
+        <v>1490.73883515867</v>
       </c>
       <c r="R28">
-        <v>1242.493952529567</v>
+        <v>13416.64951642803</v>
       </c>
       <c r="S28">
-        <v>0.01104348021278465</v>
+        <v>0.01125255050057511</v>
       </c>
       <c r="T28">
-        <v>0.01104348021278465</v>
+        <v>0.01125255050057511</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>103.916196531931</v>
+        <v>105.1932193333333</v>
       </c>
       <c r="H29">
-        <v>103.916196531931</v>
+        <v>315.579658</v>
       </c>
       <c r="I29">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="J29">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N29">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q29">
-        <v>1623.018268611688</v>
+        <v>1677.30903806658</v>
       </c>
       <c r="R29">
-        <v>1623.018268611688</v>
+        <v>15095.78134259922</v>
       </c>
       <c r="S29">
-        <v>0.01442563973684585</v>
+        <v>0.01266083918307955</v>
       </c>
       <c r="T29">
-        <v>0.01442563973684585</v>
+        <v>0.01266083918307955</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>103.916196531931</v>
+        <v>105.1932193333333</v>
       </c>
       <c r="H30">
-        <v>103.916196531931</v>
+        <v>315.579658</v>
       </c>
       <c r="I30">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="J30">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N30">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q30">
-        <v>2763.220083089578</v>
+        <v>3001.280504243279</v>
       </c>
       <c r="R30">
-        <v>2763.220083089578</v>
+        <v>27011.52453818951</v>
       </c>
       <c r="S30">
-        <v>0.0245599314580509</v>
+        <v>0.02265457881949821</v>
       </c>
       <c r="T30">
-        <v>0.0245599314580509</v>
+        <v>0.02265457881949821</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>103.916196531931</v>
+        <v>105.1932193333333</v>
       </c>
       <c r="H31">
-        <v>103.916196531931</v>
+        <v>315.579658</v>
       </c>
       <c r="I31">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="J31">
-        <v>0.1150979611187013</v>
+        <v>0.1130338192077033</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N31">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q31">
-        <v>2904.365141176941</v>
+        <v>3456.480176854271</v>
       </c>
       <c r="R31">
-        <v>2904.365141176941</v>
+        <v>31108.32159168844</v>
       </c>
       <c r="S31">
-        <v>0.02581445076814231</v>
+        <v>0.02609056450867176</v>
       </c>
       <c r="T31">
-        <v>0.02581445076814231</v>
+        <v>0.02609056450867176</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>115.546624197989</v>
+        <v>117.9780046666667</v>
       </c>
       <c r="H32">
-        <v>115.546624197989</v>
+        <v>353.934014</v>
       </c>
       <c r="I32">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="J32">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N32">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O32">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P32">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q32">
-        <v>4250.58648311662</v>
+        <v>5324.474924155713</v>
       </c>
       <c r="R32">
-        <v>4250.58648311662</v>
+        <v>47920.27431740142</v>
       </c>
       <c r="S32">
-        <v>0.03777987621063392</v>
+        <v>0.04019075746874935</v>
       </c>
       <c r="T32">
-        <v>0.03777987621063392</v>
+        <v>0.04019075746874934</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>115.546624197989</v>
+        <v>117.9780046666667</v>
       </c>
       <c r="H33">
-        <v>115.546624197989</v>
+        <v>353.934014</v>
       </c>
       <c r="I33">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="J33">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N33">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q33">
-        <v>660.2032707007787</v>
+        <v>674.5340113234597</v>
       </c>
       <c r="R33">
-        <v>660.2032707007787</v>
+        <v>6070.806101911137</v>
       </c>
       <c r="S33">
-        <v>0.005867989732711605</v>
+        <v>0.005091588041955621</v>
       </c>
       <c r="T33">
-        <v>0.005867989732711605</v>
+        <v>0.005091588041955621</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>115.546624197989</v>
+        <v>117.9780046666667</v>
       </c>
       <c r="H34">
-        <v>115.546624197989</v>
+        <v>353.934014</v>
       </c>
       <c r="I34">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="J34">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N34">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q34">
-        <v>1381.555393601164</v>
+        <v>1671.917585237361</v>
       </c>
       <c r="R34">
-        <v>1381.555393601164</v>
+        <v>15047.25826713625</v>
       </c>
       <c r="S34">
-        <v>0.01227948000957155</v>
+        <v>0.01262014285599568</v>
       </c>
       <c r="T34">
-        <v>0.01227948000957155</v>
+        <v>0.01262014285599568</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>115.546624197989</v>
+        <v>117.9780046666667</v>
       </c>
       <c r="H35">
-        <v>115.546624197989</v>
+        <v>353.934014</v>
       </c>
       <c r="I35">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="J35">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N35">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q35">
-        <v>1804.668456010325</v>
+        <v>1881.16282375014</v>
       </c>
       <c r="R35">
-        <v>1804.668456010325</v>
+        <v>16930.46541375126</v>
       </c>
       <c r="S35">
-        <v>0.01604017495941285</v>
+        <v>0.01419958960940324</v>
       </c>
       <c r="T35">
-        <v>0.01604017495941285</v>
+        <v>0.01419958960940323</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>115.546624197989</v>
+        <v>117.9780046666667</v>
       </c>
       <c r="H36">
-        <v>115.546624197989</v>
+        <v>353.934014</v>
       </c>
       <c r="I36">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="J36">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N36">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q36">
-        <v>3072.483050502911</v>
+        <v>3366.044765809233</v>
       </c>
       <c r="R36">
-        <v>3072.483050502911</v>
+        <v>30294.4028922831</v>
       </c>
       <c r="S36">
-        <v>0.0273087089907085</v>
+        <v>0.02540793049805632</v>
       </c>
       <c r="T36">
-        <v>0.0273087089907085</v>
+        <v>0.02540793049805632</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>115.546624197989</v>
+        <v>117.9780046666667</v>
       </c>
       <c r="H37">
-        <v>115.546624197989</v>
+        <v>353.934014</v>
       </c>
       <c r="I37">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="J37">
-        <v>0.1279798655376191</v>
+        <v>0.1267715213441695</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N37">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q37">
-        <v>3229.425235922607</v>
+        <v>3876.567682019169</v>
       </c>
       <c r="R37">
-        <v>3229.425235922607</v>
+        <v>34889.10913817251</v>
       </c>
       <c r="S37">
-        <v>0.02870363563458072</v>
+        <v>0.02926151287000931</v>
       </c>
       <c r="T37">
-        <v>0.02870363563458072</v>
+        <v>0.0292615128700093</v>
       </c>
     </row>
   </sheetData>
